--- a/Assets/Resources/Excels/CardManual.xlsx
+++ b/Assets/Resources/Excels/CardManual.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
